--- a/Banco Central/13/1/2/1/Operaciones financieras 2005 a 2021 - Mensual.xlsx
+++ b/Banco Central/13/1/2/1/Operaciones financieras 2005 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="167">
   <si>
     <t>Serie</t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -869,7 +872,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC142"/>
+  <dimension ref="A1:AC143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12899,7 +12902,7 @@
         <v>0</v>
       </c>
       <c r="P138">
-        <v>1807772</v>
+        <v>1807777</v>
       </c>
       <c r="Q138">
         <v>3109080</v>
@@ -12932,10 +12935,10 @@
         <v>1272597</v>
       </c>
       <c r="AA138">
-        <v>-28710</v>
+        <v>-28706</v>
       </c>
       <c r="AB138">
-        <v>473238</v>
+        <v>473234</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12985,7 +12988,7 @@
         <v>0</v>
       </c>
       <c r="P139">
-        <v>-261290</v>
+        <v>-261284</v>
       </c>
       <c r="Q139">
         <v>-657</v>
@@ -13018,10 +13021,10 @@
         <v>235521</v>
       </c>
       <c r="AA139">
-        <v>-25113</v>
+        <v>-25107</v>
       </c>
       <c r="AB139">
-        <v>-324818</v>
+        <v>-324824</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13071,7 +13074,7 @@
         <v>0</v>
       </c>
       <c r="P140">
-        <v>-750390</v>
+        <v>-750382</v>
       </c>
       <c r="Q140">
         <v>-9498</v>
@@ -13104,10 +13107,10 @@
         <v>1561476</v>
       </c>
       <c r="AA140">
-        <v>-25681</v>
+        <v>-25673</v>
       </c>
       <c r="AB140">
-        <v>-1636452</v>
+        <v>-1636460</v>
       </c>
       <c r="AC140">
         <v>-1</v>
@@ -13160,7 +13163,7 @@
         <v>0</v>
       </c>
       <c r="P141">
-        <v>1250771</v>
+        <v>1250782</v>
       </c>
       <c r="Q141">
         <v>1058388</v>
@@ -13193,10 +13196,10 @@
         <v>593955</v>
       </c>
       <c r="AA141">
-        <v>-25033</v>
+        <v>-25022</v>
       </c>
       <c r="AB141">
-        <v>1411033</v>
+        <v>1411023</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13246,7 +13249,7 @@
         <v>0</v>
       </c>
       <c r="P142">
-        <v>2165751</v>
+        <v>2165763</v>
       </c>
       <c r="Q142">
         <v>1388184</v>
@@ -13279,10 +13282,99 @@
         <v>44861</v>
       </c>
       <c r="AA142">
-        <v>-25890</v>
+        <v>-25877</v>
       </c>
       <c r="AB142">
-        <v>-3347283</v>
+        <v>-3347296</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29">
+      <c r="A143" t="s">
+        <v>166</v>
+      </c>
+      <c r="B143">
+        <v>-2171917</v>
+      </c>
+      <c r="C143">
+        <v>335069</v>
+      </c>
+      <c r="D143">
+        <v>454388</v>
+      </c>
+      <c r="E143">
+        <v>119320</v>
+      </c>
+      <c r="F143">
+        <v>-2520104</v>
+      </c>
+      <c r="G143">
+        <v>177635</v>
+      </c>
+      <c r="H143">
+        <v>2697739</v>
+      </c>
+      <c r="I143">
+        <v>-8866</v>
+      </c>
+      <c r="J143">
+        <v>21985</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>105866</v>
+      </c>
+      <c r="Q143">
+        <v>-11337</v>
+      </c>
+      <c r="R143">
+        <v>0</v>
+      </c>
+      <c r="S143">
+        <v>0</v>
+      </c>
+      <c r="T143">
+        <v>0</v>
+      </c>
+      <c r="U143">
+        <v>11337</v>
+      </c>
+      <c r="V143">
+        <v>143653</v>
+      </c>
+      <c r="W143">
+        <v>855689</v>
+      </c>
+      <c r="X143">
+        <v>855689</v>
+      </c>
+      <c r="Y143">
+        <v>0</v>
+      </c>
+      <c r="Z143">
+        <v>712036</v>
+      </c>
+      <c r="AA143">
+        <v>-26450</v>
+      </c>
+      <c r="AB143">
+        <v>-2277783</v>
+      </c>
+      <c r="AC143">
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
